--- a/CFC_Registration list_24-9.xlsx
+++ b/CFC_Registration list_24-9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CACTUS\Documents\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marinha.fernandes\Documents\GitHub\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AFCE2-F458-4DAD-987D-ECD82652CA9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017EE79A-586B-4010-B2A5-331939B3A674}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="10050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="117">
   <si>
     <t>Gender.</t>
   </si>
@@ -18267,7 +18267,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18511,9 +18511,6 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -18528,9 +18525,6 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -18545,9 +18539,6 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
@@ -18562,9 +18553,6 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
       <c r="B16" t="s">
         <v>83</v>
       </c>
@@ -18579,9 +18567,6 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
       <c r="B17" t="s">
         <v>83</v>
       </c>
@@ -18596,9 +18581,6 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
       <c r="B18" t="s">
         <v>83</v>
       </c>
@@ -18616,9 +18598,6 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
       <c r="B19" t="s">
         <v>83</v>
       </c>
@@ -18633,9 +18612,6 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
       <c r="B20" t="s">
         <v>83</v>
       </c>
